--- a/Proyectos Evaluados/Genesis/Antecedentes PF - Génesis_V2.xlsx
+++ b/Proyectos Evaluados/Genesis/Antecedentes PF - Génesis_V2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Genesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE1A0EE-2DD3-46C3-8B0A-000A89969796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F99E8-DCE1-401E-A3D7-F6C3D1E49788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1515" yWindow="1515" windowWidth="15660" windowHeight="11385" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso PMG" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="83">
   <si>
     <t>Nodo de Referencia (DNV)</t>
   </si>
@@ -195,12 +195,609 @@
     <t>TIR
 año 25</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 32 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 60 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 32 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 32 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 120 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 32 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 32 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 180 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 60 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 120 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 33 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 180 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 34 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 60 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 34 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 90 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 34 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 120 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 34 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 150 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 34 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 30 MW 180 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <t>PV + BESS Utility</t>
+  </si>
+  <si>
+    <t>PV + BESS PMGD</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 10,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 18 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 10,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 27 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 10,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 36 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 10,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 45 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 10,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 54 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 9,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 18 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 9,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 27 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 9,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 36 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 9,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 45 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 9,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 54 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 11,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 27 MWh (3 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PV 11,8 MWp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>, BESS 9 MW 45 MWh (5 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">PV 11,8 MWp, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>BESS 9 MW 18 MWh (2 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 11,8 MWp,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BESS 9 MW 36 MWh (4 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PV 11,8 MWp,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BESS 9 MW 54 MWh (6 hrs)</t>
+    </r>
+  </si>
+  <si>
+    <t>No Factible</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,14 +830,23 @@
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -282,8 +888,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -386,14 +998,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFAFABAB"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFAFABAB"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -473,12 +1123,61 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="8" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{9AC97E2C-F70C-4CD1-85D3-1EC36D4C1456}"/>
     <cellStyle name="Note" xfId="1" builtinId="10"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{6706319B-B46B-475C-93C0-D2080348B348}"/>
+    <cellStyle name="Percent" xfId="4" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -812,15 +1511,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED25429B-4721-41C5-85C0-9A506688E06E}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1153,14 +1852,14 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="40.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
@@ -1243,7 +1942,7 @@
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="29">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1255,7 +1954,7 @@
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="29">
         <v>2028</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1267,7 +1966,7 @@
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="29">
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1295,7 +1994,7 @@
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="29">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -1319,7 +2018,7 @@
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="29">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1331,7 +2030,7 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="30">
         <v>0.2</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -1345,7 +2044,7 @@
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="29">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1357,7 +2056,7 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16" s="29">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1369,7 +2068,7 @@
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17" s="29">
         <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -1381,7 +2080,7 @@
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="29">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1393,7 +2092,7 @@
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="29">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1405,7 +2104,7 @@
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="29">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1417,7 +2116,7 @@
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="29">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1429,7 +2128,7 @@
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="29">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -1443,7 +2142,7 @@
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="27">
         <v>0.2</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -1455,7 +2154,7 @@
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="27">
         <f>0.1*0.7+0.3*0.5</f>
         <v>0.21999999999999997</v>
       </c>
@@ -1468,7 +2167,7 @@
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="28">
         <v>0.15</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -1493,7 +2192,7 @@
   <dimension ref="A1:H8761"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B2" sqref="B2:B8761"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71603,18 +72302,18 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B2:G11"/>
+  <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" style="17" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="17" customWidth="1"/>
-    <col min="3" max="7" width="20.5703125" style="17" customWidth="1"/>
-    <col min="8" max="8" width="78.5703125" style="17" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" style="17" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="17" customWidth="1"/>
+    <col min="3" max="7" width="20.7109375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="78.7109375" style="17" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="17"/>
   </cols>
   <sheetData>
@@ -71639,7 +72338,9 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="13"/>
+      <c r="B3" s="31" t="s">
+        <v>65</v>
+      </c>
       <c r="C3" s="14"/>
       <c r="D3" s="14"/>
       <c r="E3" s="13"/>
@@ -71647,44 +72348,104 @@
       <c r="G3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
+      <c r="B4" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="16">
+        <v>5.3800000000000001E-2</v>
+      </c>
+      <c r="D4" s="16">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="E4" s="15">
+        <v>-1.7</v>
+      </c>
+      <c r="F4" s="15">
+        <v>11.9</v>
+      </c>
+      <c r="G4" s="15">
+        <v>53.2</v>
+      </c>
     </row>
     <row r="5" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="14">
+        <v>6.1400000000000003E-2</v>
+      </c>
+      <c r="D5" s="14">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="G5" s="13">
+        <v>60.3</v>
+      </c>
     </row>
     <row r="6" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="B6" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="16">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D6" s="16">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="E6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="15">
+        <v>10.1</v>
+      </c>
+      <c r="G6" s="15">
+        <v>67.599999999999994</v>
+      </c>
     </row>
     <row r="7" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="B7" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="14">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E7" s="13">
+        <v>-1.03</v>
+      </c>
+      <c r="F7" s="13">
+        <v>11.8</v>
+      </c>
+      <c r="G7" s="13">
+        <v>74.900000000000006</v>
+      </c>
     </row>
     <row r="8" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="B8" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="16">
+        <v>5.0299999999999997E-2</v>
+      </c>
+      <c r="D8" s="16">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="E8" s="15">
+        <v>-3.4</v>
+      </c>
+      <c r="F8" s="15">
+        <v>12.6</v>
+      </c>
+      <c r="G8" s="15">
+        <v>82.2</v>
+      </c>
     </row>
     <row r="9" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13"/>
@@ -71695,48 +72456,499 @@
       <c r="G9" s="13"/>
     </row>
     <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="B10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5.2900000000000003E-2</v>
+      </c>
+      <c r="D10" s="16">
+        <v>6.2600000000000003E-2</v>
+      </c>
+      <c r="E10" s="15">
+        <v>-1.9</v>
+      </c>
+      <c r="F10" s="15">
+        <v>11.9</v>
+      </c>
+      <c r="G10" s="15">
+        <v>52.4</v>
+      </c>
     </row>
     <row r="11" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
+      <c r="B11" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="14">
+        <v>6.0600000000000001E-2</v>
+      </c>
+      <c r="D11" s="14">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="E11" s="13">
+        <v>-0.11</v>
+      </c>
+      <c r="F11" s="13">
+        <v>11.3</v>
+      </c>
+      <c r="G11" s="13">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="38"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="38"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="33">
+        <v>7.5899999999999995E-2</v>
+      </c>
+      <c r="D23" s="33">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E23" s="13">
+        <v>1.17</v>
+      </c>
+      <c r="F23" s="13">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="G23" s="13">
+        <v>58.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="34">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="D24" s="34">
+        <v>8.9599999999999999E-2</v>
+      </c>
+      <c r="E24" s="15">
+        <v>1.82</v>
+      </c>
+      <c r="F24" s="15">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="G24" s="15">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="33">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="D25" s="42">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="F25" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G25" s="13">
+        <v>72.8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="34">
+        <v>7.6100000000000001E-2</v>
+      </c>
+      <c r="D26" s="34">
+        <v>8.43E-2</v>
+      </c>
+      <c r="E26" s="15">
+        <v>1.58</v>
+      </c>
+      <c r="F26" s="15">
+        <v>9</v>
+      </c>
+      <c r="G26" s="15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="33">
+        <v>6.8400000000000002E-2</v>
+      </c>
+      <c r="D27" s="33">
+        <v>7.7399999999999997E-2</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="F27" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="G27" s="13">
+        <v>87.3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="32"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="33">
+        <v>7.46E-2</v>
+      </c>
+      <c r="D29" s="33">
+        <v>8.2900000000000001E-2</v>
+      </c>
+      <c r="E29" s="13">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F29" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="G29" s="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="34">
+        <v>8.09E-2</v>
+      </c>
+      <c r="D30" s="34">
+        <v>8.8599999999999998E-2</v>
+      </c>
+      <c r="E30" s="15">
+        <v>1.83</v>
+      </c>
+      <c r="F30" s="15">
+        <v>8.9</v>
+      </c>
+      <c r="G30" s="15">
+        <v>62.4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="33">
+        <v>8.1799999999999998E-2</v>
+      </c>
+      <c r="D31" s="42">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="E31" s="13">
+        <v>2.09</v>
+      </c>
+      <c r="F31" s="13">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G31" s="13">
+        <v>68.900000000000006</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="34">
+        <v>7.6600000000000001E-2</v>
+      </c>
+      <c r="D32" s="34">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="E32" s="15">
+        <v>1.72</v>
+      </c>
+      <c r="F32" s="15">
+        <v>9</v>
+      </c>
+      <c r="G32" s="15">
+        <v>75.400000000000006</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="33">
+        <v>6.9900000000000004E-2</v>
+      </c>
+      <c r="D33" s="33">
+        <v>7.8799999999999995E-2</v>
+      </c>
+      <c r="E33" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="G33" s="13">
+        <v>81.900000000000006</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="32"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="33">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="D35" s="33">
+        <v>8.1600000000000006E-2</v>
+      </c>
+      <c r="E35" s="13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F35" s="13">
+        <v>9.5</v>
+      </c>
+      <c r="G35" s="13">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="34">
+        <v>7.9600000000000004E-2</v>
+      </c>
+      <c r="D36" s="34">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="E36" s="15">
+        <v>1.81</v>
+      </c>
+      <c r="F36" s="15">
+        <v>8.98</v>
+      </c>
+      <c r="G36" s="15">
+        <v>59.8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="33">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="D37" s="33">
+        <v>8.8800000000000004E-2</v>
+      </c>
+      <c r="E37" s="13">
+        <v>2.12</v>
+      </c>
+      <c r="F37" s="13">
+        <v>8.83</v>
+      </c>
+      <c r="G37" s="13">
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="34">
+        <v>7.6700000000000004E-2</v>
+      </c>
+      <c r="D38" s="34">
+        <v>8.4900000000000003E-2</v>
+      </c>
+      <c r="E38" s="15">
+        <v>1.81</v>
+      </c>
+      <c r="F38" s="15">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G38" s="15">
+        <v>71.599999999999994</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="33">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="D39" s="33">
+        <v>7.9699999999999993E-2</v>
+      </c>
+      <c r="E39" s="13">
+        <v>1.26</v>
+      </c>
+      <c r="F39" s="13">
+        <v>9.4</v>
+      </c>
+      <c r="G39" s="13">
+        <v>77.599999999999994</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C14:G14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -71997,26 +73209,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8657E7-8F72-4E89-9411-E42EF9EA66A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95870B3D-2286-404C-93FA-2858F75312B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D37EB2-50A5-4831-9233-D0371161883B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -72033,4 +73247,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95870B3D-2286-404C-93FA-2858F75312B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8657E7-8F72-4E89-9411-E42EF9EA66A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Proyectos Evaluados/Genesis/Antecedentes PF - Génesis_V2.xlsx
+++ b/Proyectos Evaluados/Genesis/Antecedentes PF - Génesis_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephano Chaura\Desktop\ejecucion-modelos\Proyectos Evaluados\Genesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{034F99E8-DCE1-401E-A3D7-F6C3D1E49788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5D75F-97DA-4E84-A360-15E0A72E833F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="3" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{A8E2847A-B53C-4F40-AC56-E093DD92F3C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Caso PMG" sheetId="1" r:id="rId1"/>
@@ -846,7 +846,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -891,6 +891,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1043,7 +1049,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1096,6 +1102,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1123,33 +1153,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="8" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="6" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="7" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="10" fontId="5" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1168,7 +1171,22 @@
     <xf numFmtId="10" fontId="5" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="8" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="3" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="9" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
@@ -1524,12 +1542,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1546,7 +1564,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1560,7 +1578,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1572,7 +1590,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1584,7 +1602,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1614,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1610,7 +1628,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
@@ -1622,7 +1640,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
@@ -1648,7 +1666,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -1662,7 +1680,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -1674,7 +1692,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1704,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1698,7 +1716,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1712,7 +1730,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
@@ -1724,7 +1742,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -1736,7 +1754,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1748,7 +1766,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1760,7 +1778,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1772,7 +1790,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1784,7 +1802,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1796,7 +1814,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1810,7 +1828,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1841,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
@@ -1851,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A343BC-6ED4-4CBF-9CE7-6A372F00A3DD}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,12 +1882,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -1886,7 +1904,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="31" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1900,7 +1918,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -1912,7 +1930,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="31"/>
       <c r="B5" s="2" t="s">
         <v>43</v>
       </c>
@@ -1924,7 +1942,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="31"/>
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
@@ -1936,13 +1954,13 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="30" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="20">
         <v>30</v>
       </c>
       <c r="D7" s="3" t="s">
@@ -1950,11 +1968,11 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="30"/>
       <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="20">
         <v>2028</v>
       </c>
       <c r="D8" s="3" t="s">
@@ -1962,11 +1980,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="30"/>
       <c r="B9" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="20">
         <v>30</v>
       </c>
       <c r="D9" s="3" t="s">
@@ -1988,13 +2006,13 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="26" t="s">
         <v>3</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="20">
         <v>30</v>
       </c>
       <c r="D11" s="3" t="s">
@@ -2002,7 +2020,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
@@ -2014,11 +2032,11 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="29">
+      <c r="C13" s="20">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -2026,11 +2044,11 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="28"/>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="21">
         <v>0.2</v>
       </c>
       <c r="D14" s="3" t="s">
@@ -2038,13 +2056,13 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="32" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="29">
+      <c r="C15" s="20">
         <v>50</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2052,11 +2070,11 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="29">
+      <c r="C16" s="20">
         <v>50</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2064,11 +2082,11 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="33"/>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="29">
+      <c r="C17" s="20">
         <v>88</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2076,11 +2094,11 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="33"/>
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="29">
+      <c r="C18" s="20">
         <v>0</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2088,11 +2106,11 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="33"/>
       <c r="B19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="29">
+      <c r="C19" s="20">
         <v>0</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2100,11 +2118,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="33"/>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="29">
+      <c r="C20" s="20">
         <v>0</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2112,11 +2130,11 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="33"/>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="29">
+      <c r="C21" s="20">
         <v>0</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2124,11 +2142,11 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
+      <c r="A22" s="34"/>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="29">
+      <c r="C22" s="20">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2136,13 +2154,13 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="26" t="s">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="27">
+      <c r="C23" s="18">
         <v>0.2</v>
       </c>
       <c r="D23" s="3" t="s">
@@ -2150,11 +2168,11 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="27"/>
       <c r="B24" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="18">
         <f>0.1*0.7+0.3*0.5</f>
         <v>0.21999999999999997</v>
       </c>
@@ -2163,11 +2181,11 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
+      <c r="A25" s="28"/>
       <c r="B25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="28">
+      <c r="C25" s="19">
         <v>0.15</v>
       </c>
       <c r="D25" s="3" t="s">
@@ -72304,8 +72322,8 @@
   </sheetPr>
   <dimension ref="B2:G39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView showGridLines="0" topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -72338,7 +72356,7 @@
       </c>
     </row>
     <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="22" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="14"/>
@@ -72499,37 +72517,37 @@
       <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="C12" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="38"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="37"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="36" t="s">
+      <c r="C14" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="38"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="37"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="13"/>
@@ -72543,61 +72561,61 @@
       <c r="B16" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C16" s="36" t="s">
+      <c r="C16" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="38"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="37"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="40"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="36" t="s">
+      <c r="C20" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14"/>
@@ -72608,7 +72626,7 @@
       <c r="G21" s="14"/>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C22" s="16"/>
@@ -72618,13 +72636,13 @@
       <c r="G22" s="16"/>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="33">
+      <c r="C23" s="24">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="24">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="E23" s="13">
@@ -72641,10 +72659,10 @@
       <c r="B24" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="34">
+      <c r="C24" s="25">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="25">
         <v>8.9599999999999999E-2</v>
       </c>
       <c r="E24" s="15">
@@ -72658,22 +72676,22 @@
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="33">
+      <c r="C25" s="45">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="45">
         <v>8.9899999999999994E-2</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="46">
         <v>2.02</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="46">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="46">
         <v>72.8</v>
       </c>
     </row>
@@ -72681,10 +72699,10 @@
       <c r="B26" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="34">
+      <c r="C26" s="25">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="25">
         <v>8.43E-2</v>
       </c>
       <c r="E26" s="15">
@@ -72698,13 +72716,13 @@
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="C27" s="33">
+      <c r="C27" s="24">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="D27" s="33">
+      <c r="D27" s="24">
         <v>7.7399999999999997E-2</v>
       </c>
       <c r="E27" s="13">
@@ -72718,7 +72736,7 @@
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="32"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="16"/>
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
@@ -72726,13 +72744,13 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="33">
+      <c r="C29" s="24">
         <v>7.46E-2</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D29" s="24">
         <v>8.2900000000000001E-2</v>
       </c>
       <c r="E29" s="13">
@@ -72749,10 +72767,10 @@
       <c r="B30" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="34">
+      <c r="C30" s="25">
         <v>8.09E-2</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="25">
         <v>8.8599999999999998E-2</v>
       </c>
       <c r="E30" s="15">
@@ -72766,22 +72784,22 @@
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C31" s="33">
+      <c r="C31" s="42">
         <v>8.1799999999999998E-2</v>
       </c>
       <c r="D31" s="42">
         <v>8.9499999999999996E-2</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="43">
         <v>2.09</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="43">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="43">
         <v>68.900000000000006</v>
       </c>
     </row>
@@ -72789,10 +72807,10 @@
       <c r="B32" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C32" s="34">
+      <c r="C32" s="25">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="D32" s="34">
+      <c r="D32" s="25">
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="E32" s="15">
@@ -72806,13 +72824,13 @@
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="24">
         <v>6.9900000000000004E-2</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="24">
         <v>7.8799999999999995E-2</v>
       </c>
       <c r="E33" s="13">
@@ -72826,7 +72844,7 @@
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
+      <c r="B34" s="23"/>
       <c r="C34" s="16"/>
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
@@ -72834,13 +72852,13 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="24">
         <v>7.3200000000000001E-2</v>
       </c>
-      <c r="D35" s="33">
+      <c r="D35" s="24">
         <v>8.1600000000000006E-2</v>
       </c>
       <c r="E35" s="13">
@@ -72857,10 +72875,10 @@
       <c r="B36" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="C36" s="34">
+      <c r="C36" s="25">
         <v>7.9600000000000004E-2</v>
       </c>
-      <c r="D36" s="34">
+      <c r="D36" s="25">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="E36" s="15">
@@ -72874,22 +72892,22 @@
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="42">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="D37" s="33">
+      <c r="D37" s="42">
         <v>8.8800000000000004E-2</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E37" s="43">
         <v>2.12</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="43">
         <v>8.83</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="43">
         <v>65.7</v>
       </c>
     </row>
@@ -72897,10 +72915,10 @@
       <c r="B38" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="34">
+      <c r="C38" s="25">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="D38" s="34">
+      <c r="D38" s="25">
         <v>8.4900000000000003E-2</v>
       </c>
       <c r="E38" s="15">
@@ -72914,13 +72932,13 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="33">
+      <c r="C39" s="24">
         <v>7.0800000000000002E-2</v>
       </c>
-      <c r="D39" s="33">
+      <c r="D39" s="24">
         <v>7.9699999999999993E-2</v>
       </c>
       <c r="E39" s="13">
@@ -72949,6 +72967,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDFFB1C384AD0D449AD4E90194E61AC8" ma:contentTypeVersion="19" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="a27fb05d60a08da7ae088f3f301ad3c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3b9b9037-28f8-4200-a961-13fb81bc61ed" xmlns:ns3="9973b7cd-78b1-41ec-8b66-6143e90e5574" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c2dbfc82655d1d9f1e7c6c1a0c8843bc" ns2:_="" ns3:_="">
     <xsd:import namespace="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
@@ -73209,28 +73248,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8657E7-8F72-4E89-9411-E42EF9EA66A0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
+    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="9973b7cd-78b1-41ec-8b66-6143e90e5574" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="3b9b9037-28f8-4200-a961-13fb81bc61ed">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95870B3D-2286-404C-93FA-2858F75312B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D37EB2-50A5-4831-9233-D0371161883B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -73247,23 +73284,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{95870B3D-2286-404C-93FA-2858F75312B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E8657E7-8F72-4E89-9411-E42EF9EA66A0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9973b7cd-78b1-41ec-8b66-6143e90e5574"/>
-    <ds:schemaRef ds:uri="3b9b9037-28f8-4200-a961-13fb81bc61ed"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>